--- a/biology/Botanique/Macrosphyra_longistyla/Macrosphyra_longistyla.xlsx
+++ b/biology/Botanique/Macrosphyra_longistyla/Macrosphyra_longistyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Macrosphyra longistyla, dont le nom vernaculaire est « co-saffoune »[1], est un arbuste sarmenteux de la famille des Rubiacées présent du Sénégal au Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Macrosphyra longistyla, dont le nom vernaculaire est « co-saffoune », est un arbuste sarmenteux de la famille des Rubiacées présent du Sénégal au Cameroun.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stature
-La taille est généralement comprise entre 2 et 3 mètres, mais elle peut atteindre 6 mètres de haut[2].
+La taille est généralement comprise entre 2 et 3 mètres, mais elle peut atteindre 6 mètres de haut.
 Bois et écorce
-L'écorce de couleur brun clair est rugueuse à fendillée. Les rameaux poussent perpendiculairement à la tige[2].
+L'écorce de couleur brun clair est rugueuse à fendillée. Les rameaux poussent perpendiculairement à la tige.
 Feuilles
-Les feuilles, de couleur vert foncé, ont une apparence gaufrée. Elles font de 9 à 14 cm de long[2].
+Les feuilles, de couleur vert foncé, ont une apparence gaufrée. Elles font de 9 à 14 cm de long.
 Fleurs et fruits
-La floraison a lieu généralement en fin de saison sèche, et au début de la saison des pluies. Les fleurs ont une couleur blanche puis jaunâtre, et font environ 5 cm de diamètre. Le fruit de 4-5 cm de diamètre a une forme globuleuse ou sphérique. Il contient un grand nombre de graines plates[2].
+La floraison a lieu généralement en fin de saison sèche, et au début de la saison des pluies. Les fleurs ont une couleur blanche puis jaunâtre, et font environ 5 cm de diamètre. Le fruit de 4-5 cm de diamètre a une forme globuleuse ou sphérique. Il contient un grand nombre de graines plates.
 			Fruit en développement.
 </t>
         </is>
@@ -550,12 +564,14 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usages alimentaires et culinaires
-La pulpe du fruit, de couleur noirâtre et au goût sucré, est consommée localement[2].
+La pulpe du fruit, de couleur noirâtre et au goût sucré, est consommée localement.
 Usages domestiques, artisanaux et industriels
-Les fleurs sont utilisées pour parfumer le linge et éloigner les insectes[2].</t>
+Les fleurs sont utilisées pour parfumer le linge et éloigner les insectes.</t>
         </is>
       </c>
     </row>
